--- a/Dokumentation/Zeitplan.xlsx
+++ b/Dokumentation/Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5350F0-5080-48E4-924C-A43263E22CF6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8523666B-0A32-4392-8DAB-51CB82D1C27E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -527,51 +527,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -582,48 +537,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -906,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,53 +918,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="62"/>
       <c r="E1" s="1"/>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="34"/>
+      <c r="H1" s="62"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="65">
         <v>43404</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="27">
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65">
         <v>43405</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="27">
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="65">
         <v>43406</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="27">
+      <c r="J2" s="66"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="65">
         <v>43411</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="27">
+      <c r="M2" s="66"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="65">
         <v>43413</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="29"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="67"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="12">
         <v>2</v>
       </c>
@@ -1011,10 +1012,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="63" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="19"/>
@@ -1034,10 +1035,10 @@
       <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="11"/>
       <c r="F5" s="10"/>
       <c r="G5" s="4"/>
@@ -1053,13 +1054,13 @@
       <c r="Q5" s="11"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="39">
+      <c r="A6" s="59">
         <v>1</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="5"/>
       <c r="E6" s="7"/>
       <c r="F6" s="6"/>
@@ -1076,10 +1077,10 @@
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="43"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
       <c r="G7" s="3"/>
@@ -1095,13 +1096,13 @@
       <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
+      <c r="A8" s="59">
         <v>2</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="5"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6"/>
@@ -1118,11 +1119,11 @@
       <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="72"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="6"/>
       <c r="G9" s="3"/>
       <c r="H9" s="7"/>
@@ -1137,13 +1138,13 @@
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="51" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="45"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="5"/>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
@@ -1160,9 +1161,9 @@
       <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="54"/>
-      <c r="C11" s="47"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="4"/>
       <c r="E11" s="11"/>
       <c r="F11" s="10"/>
@@ -1179,13 +1180,13 @@
       <c r="Q11" s="11"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
+      <c r="A12" s="59">
         <v>1</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="5"/>
       <c r="E12" s="7"/>
       <c r="F12" s="6"/>
@@ -1202,9 +1203,9 @@
       <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="46"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="3"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6"/>
@@ -1221,13 +1222,13 @@
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
+      <c r="A14" s="59">
         <v>2</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="5"/>
       <c r="E14" s="7"/>
       <c r="F14" s="6"/>
@@ -1244,14 +1245,14 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="48"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="3"/>
       <c r="E15" s="7"/>
       <c r="F15" s="6"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="47"/>
       <c r="I15" s="6"/>
       <c r="J15" s="3"/>
       <c r="K15" s="7"/>
@@ -1263,13 +1264,13 @@
       <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+      <c r="A16" s="59">
         <v>3</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="48"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="5"/>
       <c r="E16" s="9"/>
       <c r="F16" s="6"/>
@@ -1286,14 +1287,14 @@
       <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="48"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="3"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="47"/>
       <c r="I17" s="6"/>
       <c r="J17" s="3"/>
       <c r="K17" s="7"/>
@@ -1305,15 +1306,15 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
+      <c r="A18" s="59">
         <v>4</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="58"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="8"/>
       <c r="G18" s="3"/>
       <c r="H18" s="7"/>
@@ -1328,13 +1329,13 @@
       <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="48"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="3"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="3"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="7"/>
       <c r="I19" s="6"/>
       <c r="J19" s="3"/>
@@ -1347,13 +1348,13 @@
       <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="51" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="4"/>
       <c r="E20" s="11"/>
       <c r="F20" s="8"/>
@@ -1370,9 +1371,9 @@
       <c r="Q20" s="11"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="54"/>
-      <c r="C21" s="47"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="4"/>
       <c r="E21" s="11"/>
       <c r="F21" s="10"/>
@@ -1389,13 +1390,13 @@
       <c r="Q21" s="11"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="39">
+      <c r="A22" s="59">
         <v>1</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="48"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="3"/>
       <c r="E22" s="7"/>
       <c r="F22" s="8"/>
@@ -1412,9 +1413,9 @@
       <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="48"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="3"/>
       <c r="E23" s="7"/>
       <c r="F23" s="6"/>
@@ -1431,13 +1432,13 @@
       <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
+      <c r="A24" s="59">
         <v>2</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="48"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="3"/>
       <c r="E24" s="7"/>
       <c r="F24" s="8"/>
@@ -1454,9 +1455,9 @@
       <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="48"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="3"/>
       <c r="E25" s="7"/>
       <c r="F25" s="6"/>
@@ -1473,13 +1474,13 @@
       <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="39">
+      <c r="A26" s="59">
         <v>3</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="48"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="3"/>
       <c r="E26" s="7"/>
       <c r="F26" s="8"/>
@@ -1496,9 +1497,9 @@
       <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="48"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="3"/>
       <c r="E27" s="7"/>
       <c r="F27" s="6"/>
@@ -1515,13 +1516,13 @@
       <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="51" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="47"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="4"/>
       <c r="E28" s="11"/>
       <c r="F28" s="10"/>
@@ -1538,9 +1539,9 @@
       <c r="Q28" s="11"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="54"/>
-      <c r="C29" s="47"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="4"/>
       <c r="E29" s="11"/>
       <c r="F29" s="10"/>
@@ -1557,13 +1558,13 @@
       <c r="Q29" s="11"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="39">
+      <c r="A30" s="59">
         <v>1</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="48"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="3"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6"/>
@@ -1580,9 +1581,9 @@
       <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="48"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="3"/>
       <c r="E31" s="7"/>
       <c r="F31" s="6"/>
@@ -1599,13 +1600,13 @@
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="39">
+      <c r="A32" s="59">
         <v>2</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="48"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="3"/>
       <c r="E32" s="7"/>
       <c r="F32" s="6"/>
@@ -1622,9 +1623,9 @@
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="48"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="3"/>
       <c r="E33" s="7"/>
       <c r="F33" s="6"/>
@@ -1641,13 +1642,13 @@
       <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="39">
+      <c r="A34" s="59">
         <v>3</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="48"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="3"/>
       <c r="E34" s="7"/>
       <c r="F34" s="6"/>
@@ -1664,9 +1665,9 @@
       <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="48"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="3"/>
       <c r="E35" s="7"/>
       <c r="F35" s="6"/>
@@ -1683,13 +1684,13 @@
       <c r="Q35" s="7"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="39">
+      <c r="A36" s="59">
         <v>4</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="48"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="3"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6"/>
@@ -1706,9 +1707,9 @@
       <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="48"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="3"/>
       <c r="E37" s="7"/>
       <c r="F37" s="6"/>
@@ -1725,13 +1726,13 @@
       <c r="Q37" s="7"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="39">
+      <c r="A38" s="59">
         <v>5</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="48"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="3"/>
       <c r="E38" s="7"/>
       <c r="F38" s="6"/>
@@ -1748,9 +1749,9 @@
       <c r="Q38" s="7"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="48"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="3"/>
       <c r="E39" s="7"/>
       <c r="F39" s="6"/>
@@ -1767,13 +1768,13 @@
       <c r="Q39" s="7"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="39">
+      <c r="A40" s="59">
         <v>6</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="48"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="3"/>
       <c r="E40" s="7"/>
       <c r="F40" s="6"/>
@@ -1790,9 +1791,9 @@
       <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="48"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="3"/>
       <c r="E41" s="7"/>
       <c r="F41" s="6"/>
@@ -1809,13 +1810,13 @@
       <c r="Q41" s="7"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="51" t="s">
         <v>26</v>
       </c>
       <c r="B42" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="47"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="4"/>
       <c r="E42" s="11"/>
       <c r="F42" s="10"/>
@@ -1832,9 +1833,9 @@
       <c r="Q42" s="11"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="54"/>
-      <c r="C43" s="47"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="4"/>
       <c r="E43" s="11"/>
       <c r="F43" s="10"/>
@@ -1851,13 +1852,13 @@
       <c r="Q43" s="11"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="39">
+      <c r="A44" s="59">
         <v>1</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="48"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="3"/>
       <c r="E44" s="7"/>
       <c r="F44" s="6"/>
@@ -1874,9 +1875,9 @@
       <c r="Q44" s="7"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="48"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="3"/>
       <c r="E45" s="7"/>
       <c r="F45" s="6"/>
@@ -1893,13 +1894,13 @@
       <c r="Q45" s="7"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="39">
+      <c r="A46" s="59">
         <v>2</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="48"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="3"/>
       <c r="E46" s="7"/>
       <c r="F46" s="6"/>
@@ -1916,9 +1917,9 @@
       <c r="Q46" s="7"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="48"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="33"/>
       <c r="D47" s="3"/>
       <c r="E47" s="7"/>
       <c r="F47" s="6"/>
@@ -1935,13 +1936,13 @@
       <c r="Q47" s="7"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="51" t="s">
         <v>35</v>
       </c>
       <c r="B48" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="47"/>
+      <c r="C48" s="32"/>
       <c r="D48" s="4"/>
       <c r="E48" s="11"/>
       <c r="F48" s="10"/>
@@ -1958,9 +1959,9 @@
       <c r="Q48" s="9"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
+      <c r="A49" s="53"/>
       <c r="B49" s="54"/>
-      <c r="C49" s="47"/>
+      <c r="C49" s="32"/>
       <c r="D49" s="4"/>
       <c r="E49" s="11"/>
       <c r="F49" s="10"/>
@@ -1977,13 +1978,13 @@
       <c r="Q49" s="11"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="39">
+      <c r="A50" s="59">
         <v>1</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="48"/>
+      <c r="C50" s="33"/>
       <c r="D50" s="3"/>
       <c r="E50" s="7"/>
       <c r="F50" s="6"/>
@@ -2000,9 +2001,9 @@
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="48"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="33"/>
       <c r="D51" s="3"/>
       <c r="E51" s="7"/>
       <c r="F51" s="6"/>
@@ -2019,13 +2020,13 @@
       <c r="Q51" s="7"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="39">
+      <c r="A52" s="59">
         <v>2</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="48"/>
+      <c r="C52" s="33"/>
       <c r="D52" s="3"/>
       <c r="E52" s="7"/>
       <c r="F52" s="6"/>
@@ -2042,9 +2043,9 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="48"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="33"/>
       <c r="D53" s="3"/>
       <c r="E53" s="7"/>
       <c r="F53" s="6"/>
@@ -2061,13 +2062,13 @@
       <c r="Q53" s="7"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="39">
+      <c r="A54" s="59">
         <v>3</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="48"/>
+      <c r="C54" s="33"/>
       <c r="D54" s="3"/>
       <c r="E54" s="7"/>
       <c r="F54" s="6"/>
@@ -2084,9 +2085,9 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="48"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="33"/>
       <c r="D55" s="3"/>
       <c r="E55" s="7"/>
       <c r="F55" s="6"/>
@@ -2103,13 +2104,13 @@
       <c r="Q55" s="7"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="39">
+      <c r="A56" s="59">
         <v>4</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="49"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="16"/>
       <c r="E56" s="17"/>
       <c r="F56" s="15"/>
@@ -2126,9 +2127,9 @@
       <c r="Q56" s="18"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="48"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="33"/>
       <c r="D57" s="3"/>
       <c r="E57" s="7"/>
       <c r="F57" s="6"/>
@@ -2145,13 +2146,13 @@
       <c r="Q57" s="7"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="41" t="s">
+      <c r="A58" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="50"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="20"/>
       <c r="E58" s="18"/>
       <c r="F58" s="19"/>
@@ -2168,14 +2169,14 @@
       <c r="Q58" s="18"/>
     </row>
     <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="53"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="26"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="48"/>
       <c r="I59" s="24"/>
       <c r="J59" s="25"/>
       <c r="K59" s="26"/>
@@ -2187,13 +2188,13 @@
       <c r="Q59" s="26"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="51" t="s">
         <v>39</v>
       </c>
       <c r="B60" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C60" s="60"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="22"/>
       <c r="E60" s="23"/>
       <c r="F60" s="21"/>
@@ -2210,9 +2211,9 @@
       <c r="Q60" s="23"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="52"/>
+      <c r="A61" s="53"/>
       <c r="B61" s="54"/>
-      <c r="C61" s="47"/>
+      <c r="C61" s="32"/>
       <c r="D61" s="4"/>
       <c r="E61" s="11"/>
       <c r="F61" s="10"/>
@@ -2229,81 +2230,70 @@
       <c r="Q61" s="11"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="62" t="s">
+      <c r="B62" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="63"/>
-      <c r="D62" s="64"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="41"/>
       <c r="E62" s="18"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="64"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="41"/>
       <c r="H62" s="18"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="64"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="41"/>
       <c r="K62" s="18"/>
-      <c r="L62" s="65"/>
-      <c r="M62" s="64"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="41"/>
       <c r="N62" s="18"/>
-      <c r="O62" s="65"/>
-      <c r="P62" s="64"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="41"/>
       <c r="Q62" s="18"/>
     </row>
     <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="66"/>
-      <c r="B63" s="67"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="71"/>
-      <c r="J63" s="69"/>
-      <c r="K63" s="70"/>
-      <c r="L63" s="71"/>
-      <c r="M63" s="69"/>
-      <c r="N63" s="70"/>
-      <c r="O63" s="71"/>
-      <c r="P63" s="69"/>
-      <c r="Q63" s="70"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="45"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="45"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
@@ -2320,27 +2310,38 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Dokumentation/Zeitplan.xlsx
+++ b/Dokumentation/Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8523666B-0A32-4392-8DAB-51CB82D1C27E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02139E0A-5A36-4786-AC53-A35EFDAC5ED1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,24 +549,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -579,52 +625,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,41 +930,41 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65">
+      <c r="C2" s="50">
         <v>43404</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="65">
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="50">
         <v>43405</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="65">
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="50">
         <v>43406</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="65">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="50">
         <v>43411</v>
       </c>
-      <c r="M2" s="66"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="65">
+      <c r="M2" s="51"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="50">
         <v>43413</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="67"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="52"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71"/>
-      <c r="B3" s="69"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="12">
         <v>2</v>
       </c>
@@ -1012,7 +1012,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="63" t="s">
@@ -1035,7 +1035,7 @@
       <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="64"/>
       <c r="C5" s="27"/>
       <c r="D5" s="28"/>
@@ -1054,10 +1054,10 @@
       <c r="Q5" s="11"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="59">
+      <c r="A6" s="55">
         <v>1</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="57" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="30"/>
@@ -1077,8 +1077,8 @@
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="31"/>
       <c r="D7" s="28"/>
       <c r="E7" s="7"/>
@@ -1096,10 +1096,10 @@
       <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="59">
+      <c r="A8" s="55">
         <v>2</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="57" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="38"/>
@@ -1119,8 +1119,8 @@
       <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="61"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="38"/>
       <c r="D9" s="28"/>
       <c r="E9" s="47"/>
@@ -1138,10 +1138,10 @@
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="65" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="30"/>
@@ -1161,8 +1161,8 @@
       <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="32"/>
       <c r="D11" s="4"/>
       <c r="E11" s="11"/>
@@ -1180,10 +1180,10 @@
       <c r="Q11" s="11"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="59">
+      <c r="A12" s="55">
         <v>1</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="57" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="30"/>
@@ -1203,8 +1203,8 @@
       <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="61"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="31"/>
       <c r="D13" s="3"/>
       <c r="E13" s="7"/>
@@ -1222,10 +1222,10 @@
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="59">
+      <c r="A14" s="55">
         <v>2</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="57" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="33"/>
@@ -1245,8 +1245,8 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="61"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="33"/>
       <c r="D15" s="3"/>
       <c r="E15" s="7"/>
@@ -1264,10 +1264,10 @@
       <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="59">
+      <c r="A16" s="55">
         <v>3</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="33"/>
@@ -1287,8 +1287,8 @@
       <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="33"/>
       <c r="D17" s="3"/>
       <c r="E17" s="7"/>
@@ -1306,10 +1306,10 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="59">
+      <c r="A18" s="55">
         <v>4</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="57" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="33"/>
@@ -1329,8 +1329,8 @@
       <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="61"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="33"/>
       <c r="D19" s="3"/>
       <c r="E19" s="7"/>
@@ -1348,10 +1348,10 @@
       <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="32"/>
@@ -1371,8 +1371,8 @@
       <c r="Q20" s="11"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="32"/>
       <c r="D21" s="4"/>
       <c r="E21" s="11"/>
@@ -1390,10 +1390,10 @@
       <c r="Q21" s="11"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="59">
+      <c r="A22" s="55">
         <v>1</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="57" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="33"/>
@@ -1413,15 +1413,15 @@
       <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="61"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="33"/>
       <c r="D23" s="3"/>
       <c r="E23" s="7"/>
       <c r="F23" s="6"/>
       <c r="G23" s="3"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="6"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="3"/>
       <c r="K23" s="7"/>
       <c r="L23" s="6"/>
@@ -1432,10 +1432,10 @@
       <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="59">
+      <c r="A24" s="55">
         <v>2</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="57" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="33"/>
@@ -1455,15 +1455,15 @@
       <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="61"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="33"/>
       <c r="D25" s="3"/>
       <c r="E25" s="7"/>
       <c r="F25" s="6"/>
       <c r="G25" s="3"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="6"/>
+      <c r="I25" s="27"/>
       <c r="J25" s="3"/>
       <c r="K25" s="7"/>
       <c r="L25" s="6"/>
@@ -1474,10 +1474,10 @@
       <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="59">
+      <c r="A26" s="55">
         <v>3</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="57" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="33"/>
@@ -1497,15 +1497,15 @@
       <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="61"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="33"/>
       <c r="D27" s="3"/>
       <c r="E27" s="7"/>
       <c r="F27" s="6"/>
       <c r="G27" s="3"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="6"/>
+      <c r="I27" s="27"/>
       <c r="J27" s="3"/>
       <c r="K27" s="7"/>
       <c r="L27" s="6"/>
@@ -1516,10 +1516,10 @@
       <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="65" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="32"/>
@@ -1539,8 +1539,8 @@
       <c r="Q28" s="11"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="54"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="32"/>
       <c r="D29" s="4"/>
       <c r="E29" s="11"/>
@@ -1558,10 +1558,10 @@
       <c r="Q29" s="11"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="59">
+      <c r="A30" s="55">
         <v>1</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="57" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="33"/>
@@ -1581,17 +1581,17 @@
       <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="61"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="33"/>
       <c r="D31" s="3"/>
       <c r="E31" s="7"/>
       <c r="F31" s="6"/>
       <c r="G31" s="3"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="7"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="47"/>
       <c r="L31" s="6"/>
       <c r="M31" s="3"/>
       <c r="N31" s="7"/>
@@ -1600,10 +1600,10 @@
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="59">
+      <c r="A32" s="55">
         <v>2</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="33"/>
@@ -1623,8 +1623,8 @@
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
-      <c r="B33" s="61"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="33"/>
       <c r="D33" s="3"/>
       <c r="E33" s="7"/>
@@ -1632,7 +1632,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="7"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="3"/>
+      <c r="J33" s="28"/>
       <c r="K33" s="7"/>
       <c r="L33" s="6"/>
       <c r="M33" s="3"/>
@@ -1642,10 +1642,10 @@
       <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="59">
+      <c r="A34" s="55">
         <v>3</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="57" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="33"/>
@@ -1665,8 +1665,8 @@
       <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="60"/>
-      <c r="B35" s="61"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="33"/>
       <c r="D35" s="3"/>
       <c r="E35" s="7"/>
@@ -1674,7 +1674,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="7"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="3"/>
+      <c r="J35" s="28"/>
       <c r="K35" s="7"/>
       <c r="L35" s="6"/>
       <c r="M35" s="3"/>
@@ -1684,10 +1684,10 @@
       <c r="Q35" s="7"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="59">
+      <c r="A36" s="55">
         <v>4</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="57" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="33"/>
@@ -1707,8 +1707,8 @@
       <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="61"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="33"/>
       <c r="D37" s="3"/>
       <c r="E37" s="7"/>
@@ -1716,7 +1716,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="7"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="3"/>
+      <c r="J37" s="28"/>
       <c r="K37" s="7"/>
       <c r="L37" s="6"/>
       <c r="M37" s="3"/>
@@ -1726,10 +1726,10 @@
       <c r="Q37" s="7"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="59">
+      <c r="A38" s="55">
         <v>5</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="57" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="33"/>
@@ -1749,8 +1749,8 @@
       <c r="Q38" s="7"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="61"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="33"/>
       <c r="D39" s="3"/>
       <c r="E39" s="7"/>
@@ -1758,7 +1758,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="7"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="3"/>
+      <c r="J39" s="28"/>
       <c r="K39" s="7"/>
       <c r="L39" s="6"/>
       <c r="M39" s="3"/>
@@ -1768,10 +1768,10 @@
       <c r="Q39" s="7"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="59">
+      <c r="A40" s="55">
         <v>6</v>
       </c>
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="57" t="s">
         <v>25</v>
       </c>
       <c r="C40" s="33"/>
@@ -1791,8 +1791,8 @@
       <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
-      <c r="B41" s="61"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="33"/>
       <c r="D41" s="3"/>
       <c r="E41" s="7"/>
@@ -1800,7 +1800,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="7"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="3"/>
+      <c r="J41" s="28"/>
       <c r="K41" s="7"/>
       <c r="L41" s="6"/>
       <c r="M41" s="3"/>
@@ -1810,10 +1810,10 @@
       <c r="Q41" s="7"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C42" s="32"/>
@@ -1833,8 +1833,8 @@
       <c r="Q42" s="11"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
-      <c r="B43" s="54"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="65"/>
       <c r="C43" s="32"/>
       <c r="D43" s="4"/>
       <c r="E43" s="11"/>
@@ -1852,10 +1852,10 @@
       <c r="Q43" s="11"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="59">
+      <c r="A44" s="55">
         <v>1</v>
       </c>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="57" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="33"/>
@@ -1875,8 +1875,8 @@
       <c r="Q44" s="7"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="61"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="33"/>
       <c r="D45" s="3"/>
       <c r="E45" s="7"/>
@@ -1894,10 +1894,10 @@
       <c r="Q45" s="7"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="59">
+      <c r="A46" s="55">
         <v>2</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="57" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="33"/>
@@ -1917,8 +1917,8 @@
       <c r="Q46" s="7"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
-      <c r="B47" s="61"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="57"/>
       <c r="C47" s="33"/>
       <c r="D47" s="3"/>
       <c r="E47" s="7"/>
@@ -1936,10 +1936,10 @@
       <c r="Q47" s="7"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="65" t="s">
         <v>30</v>
       </c>
       <c r="C48" s="32"/>
@@ -1959,8 +1959,8 @@
       <c r="Q48" s="9"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="B49" s="54"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="65"/>
       <c r="C49" s="32"/>
       <c r="D49" s="4"/>
       <c r="E49" s="11"/>
@@ -1978,10 +1978,10 @@
       <c r="Q49" s="11"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="59">
+      <c r="A50" s="55">
         <v>1</v>
       </c>
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="57" t="s">
         <v>32</v>
       </c>
       <c r="C50" s="33"/>
@@ -2001,8 +2001,8 @@
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="60"/>
-      <c r="B51" s="61"/>
+      <c r="A51" s="56"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="33"/>
       <c r="D51" s="3"/>
       <c r="E51" s="7"/>
@@ -2020,10 +2020,10 @@
       <c r="Q51" s="7"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="59">
+      <c r="A52" s="55">
         <v>2</v>
       </c>
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="57" t="s">
         <v>33</v>
       </c>
       <c r="C52" s="33"/>
@@ -2043,8 +2043,8 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="60"/>
-      <c r="B53" s="61"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="57"/>
       <c r="C53" s="33"/>
       <c r="D53" s="3"/>
       <c r="E53" s="7"/>
@@ -2062,10 +2062,10 @@
       <c r="Q53" s="7"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="59">
+      <c r="A54" s="55">
         <v>3</v>
       </c>
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C54" s="33"/>
@@ -2085,8 +2085,8 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="60"/>
-      <c r="B55" s="61"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="33"/>
       <c r="D55" s="3"/>
       <c r="E55" s="7"/>
@@ -2104,10 +2104,10 @@
       <c r="Q55" s="7"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="59">
+      <c r="A56" s="55">
         <v>4</v>
       </c>
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="57" t="s">
         <v>31</v>
       </c>
       <c r="C56" s="34"/>
@@ -2127,8 +2127,8 @@
       <c r="Q56" s="18"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
-      <c r="B57" s="61"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="33"/>
       <c r="D57" s="3"/>
       <c r="E57" s="7"/>
@@ -2146,10 +2146,10 @@
       <c r="Q57" s="7"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="51" t="s">
+      <c r="A58" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="68" t="s">
         <v>37</v>
       </c>
       <c r="C58" s="35"/>
@@ -2169,17 +2169,17 @@
       <c r="Q58" s="18"/>
     </row>
     <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="52"/>
-      <c r="B59" s="50"/>
+      <c r="A59" s="70"/>
+      <c r="B59" s="69"/>
       <c r="C59" s="36"/>
       <c r="D59" s="29"/>
       <c r="E59" s="48"/>
-      <c r="F59" s="74"/>
+      <c r="F59" s="49"/>
       <c r="G59" s="29"/>
       <c r="H59" s="48"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="26"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="48"/>
       <c r="L59" s="24"/>
       <c r="M59" s="25"/>
       <c r="N59" s="26"/>
@@ -2188,10 +2188,10 @@
       <c r="Q59" s="26"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="51" t="s">
+      <c r="A60" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B60" s="65" t="s">
         <v>40</v>
       </c>
       <c r="C60" s="39"/>
@@ -2211,8 +2211,8 @@
       <c r="Q60" s="23"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
-      <c r="B61" s="54"/>
+      <c r="A61" s="67"/>
+      <c r="B61" s="65"/>
       <c r="C61" s="32"/>
       <c r="D61" s="4"/>
       <c r="E61" s="11"/>
@@ -2230,10 +2230,10 @@
       <c r="Q61" s="11"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="55" t="s">
+      <c r="A62" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="73" t="s">
         <v>41</v>
       </c>
       <c r="C62" s="40"/>
@@ -2253,17 +2253,17 @@
       <c r="Q62" s="18"/>
     </row>
     <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="56"/>
-      <c r="B63" s="58"/>
+      <c r="A63" s="72"/>
+      <c r="B63" s="74"/>
       <c r="C63" s="43"/>
       <c r="D63" s="44"/>
       <c r="E63" s="48"/>
       <c r="F63" s="46"/>
       <c r="G63" s="44"/>
-      <c r="H63" s="45"/>
+      <c r="H63" s="48"/>
       <c r="I63" s="46"/>
       <c r="J63" s="44"/>
-      <c r="K63" s="45"/>
+      <c r="K63" s="48"/>
       <c r="L63" s="46"/>
       <c r="M63" s="44"/>
       <c r="N63" s="45"/>
@@ -2273,6 +2273,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A56:A57"/>
@@ -2289,59 +2342,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Dokumentation/Zeitplan.xlsx
+++ b/Dokumentation/Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02139E0A-5A36-4786-AC53-A35EFDAC5ED1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95339432-05A3-4B6B-B7BB-50040C4FC67C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,6 +550,54 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -565,15 +613,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,45 +623,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R59" sqref="R59"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,53 +918,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62"/>
+      <c r="D1" s="63"/>
       <c r="E1" s="1"/>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="62"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="66">
         <v>43404</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="50">
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="66">
         <v>43405</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="50">
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="66">
         <v>43406</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="50">
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="66">
         <v>43411</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="50">
+      <c r="M2" s="67"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="66">
         <v>43413</v>
       </c>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="52"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="68"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="54"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="12">
         <v>2</v>
       </c>
@@ -1012,10 +1012,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="64" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="19"/>
@@ -1035,8 +1035,8 @@
       <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="64"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="27"/>
       <c r="D5" s="28"/>
       <c r="E5" s="11"/>
@@ -1054,10 +1054,10 @@
       <c r="Q5" s="11"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="55">
+      <c r="A6" s="60">
         <v>1</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="62" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="30"/>
@@ -1077,8 +1077,8 @@
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="57"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="31"/>
       <c r="D7" s="28"/>
       <c r="E7" s="7"/>
@@ -1096,10 +1096,10 @@
       <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="55">
+      <c r="A8" s="60">
         <v>2</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="62" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="38"/>
@@ -1119,8 +1119,8 @@
       <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="38"/>
       <c r="D9" s="28"/>
       <c r="E9" s="47"/>
@@ -1138,10 +1138,10 @@
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="55" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="30"/>
@@ -1161,8 +1161,8 @@
       <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="65"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="32"/>
       <c r="D11" s="4"/>
       <c r="E11" s="11"/>
@@ -1180,10 +1180,10 @@
       <c r="Q11" s="11"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="55">
+      <c r="A12" s="60">
         <v>1</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="62" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="30"/>
@@ -1203,8 +1203,8 @@
       <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="57"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="31"/>
       <c r="D13" s="3"/>
       <c r="E13" s="7"/>
@@ -1222,10 +1222,10 @@
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="55">
+      <c r="A14" s="60">
         <v>2</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="62" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="33"/>
@@ -1245,8 +1245,8 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="33"/>
       <c r="D15" s="3"/>
       <c r="E15" s="7"/>
@@ -1264,10 +1264,10 @@
       <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="55">
+      <c r="A16" s="60">
         <v>3</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="62" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="33"/>
@@ -1287,8 +1287,8 @@
       <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="33"/>
       <c r="D17" s="3"/>
       <c r="E17" s="7"/>
@@ -1306,10 +1306,10 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="55">
+      <c r="A18" s="60">
         <v>4</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="62" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="33"/>
@@ -1329,8 +1329,8 @@
       <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="57"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="33"/>
       <c r="D19" s="3"/>
       <c r="E19" s="7"/>
@@ -1348,10 +1348,10 @@
       <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="32"/>
@@ -1371,8 +1371,8 @@
       <c r="Q20" s="11"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="65"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="32"/>
       <c r="D21" s="4"/>
       <c r="E21" s="11"/>
@@ -1390,10 +1390,10 @@
       <c r="Q21" s="11"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="55">
+      <c r="A22" s="60">
         <v>1</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="62" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="33"/>
@@ -1413,8 +1413,8 @@
       <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="57"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="33"/>
       <c r="D23" s="3"/>
       <c r="E23" s="7"/>
@@ -1432,10 +1432,10 @@
       <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="55">
+      <c r="A24" s="60">
         <v>2</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="62" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="33"/>
@@ -1455,8 +1455,8 @@
       <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="57"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="33"/>
       <c r="D25" s="3"/>
       <c r="E25" s="7"/>
@@ -1474,10 +1474,10 @@
       <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="55">
+      <c r="A26" s="60">
         <v>3</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="62" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="33"/>
@@ -1497,8 +1497,8 @@
       <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="57"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="33"/>
       <c r="D27" s="3"/>
       <c r="E27" s="7"/>
@@ -1516,10 +1516,10 @@
       <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="32"/>
@@ -1539,8 +1539,8 @@
       <c r="Q28" s="11"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="65"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="32"/>
       <c r="D29" s="4"/>
       <c r="E29" s="11"/>
@@ -1558,10 +1558,10 @@
       <c r="Q29" s="11"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="55">
+      <c r="A30" s="60">
         <v>1</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="62" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="33"/>
@@ -1581,8 +1581,8 @@
       <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
-      <c r="B31" s="57"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
       <c r="C31" s="33"/>
       <c r="D31" s="3"/>
       <c r="E31" s="7"/>
@@ -1600,10 +1600,10 @@
       <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="55">
+      <c r="A32" s="60">
         <v>2</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="62" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="33"/>
@@ -1623,8 +1623,8 @@
       <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
-      <c r="B33" s="57"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
       <c r="C33" s="33"/>
       <c r="D33" s="3"/>
       <c r="E33" s="7"/>
@@ -1634,7 +1634,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="28"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="6"/>
+      <c r="L33" s="27"/>
       <c r="M33" s="3"/>
       <c r="N33" s="7"/>
       <c r="O33" s="6"/>
@@ -1642,10 +1642,10 @@
       <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="55">
+      <c r="A34" s="60">
         <v>3</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="62" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="33"/>
@@ -1665,8 +1665,8 @@
       <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
-      <c r="B35" s="57"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="33"/>
       <c r="D35" s="3"/>
       <c r="E35" s="7"/>
@@ -1676,7 +1676,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="28"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="6"/>
+      <c r="L35" s="27"/>
       <c r="M35" s="3"/>
       <c r="N35" s="7"/>
       <c r="O35" s="6"/>
@@ -1684,10 +1684,10 @@
       <c r="Q35" s="7"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="55">
+      <c r="A36" s="60">
         <v>4</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="62" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="33"/>
@@ -1707,8 +1707,8 @@
       <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
-      <c r="B37" s="57"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="33"/>
       <c r="D37" s="3"/>
       <c r="E37" s="7"/>
@@ -1719,17 +1719,17 @@
       <c r="J37" s="28"/>
       <c r="K37" s="7"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="3"/>
+      <c r="M37" s="28"/>
       <c r="N37" s="7"/>
       <c r="O37" s="6"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="7"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="55">
+      <c r="A38" s="60">
         <v>5</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="62" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="33"/>
@@ -1749,8 +1749,8 @@
       <c r="Q38" s="7"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
-      <c r="B39" s="57"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="62"/>
       <c r="C39" s="33"/>
       <c r="D39" s="3"/>
       <c r="E39" s="7"/>
@@ -1762,16 +1762,16 @@
       <c r="K39" s="7"/>
       <c r="L39" s="6"/>
       <c r="M39" s="3"/>
-      <c r="N39" s="7"/>
+      <c r="N39" s="47"/>
       <c r="O39" s="6"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="7"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="55">
+      <c r="A40" s="60">
         <v>6</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="62" t="s">
         <v>25</v>
       </c>
       <c r="C40" s="33"/>
@@ -1791,8 +1791,8 @@
       <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="57"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="62"/>
       <c r="C41" s="33"/>
       <c r="D41" s="3"/>
       <c r="E41" s="7"/>
@@ -1810,10 +1810,10 @@
       <c r="Q41" s="7"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="55" t="s">
         <v>27</v>
       </c>
       <c r="C42" s="32"/>
@@ -1833,8 +1833,8 @@
       <c r="Q42" s="11"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
-      <c r="B43" s="65"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="32"/>
       <c r="D43" s="4"/>
       <c r="E43" s="11"/>
@@ -1852,10 +1852,10 @@
       <c r="Q43" s="11"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="55">
+      <c r="A44" s="60">
         <v>1</v>
       </c>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="62" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="33"/>
@@ -1875,8 +1875,8 @@
       <c r="Q44" s="7"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
-      <c r="B45" s="57"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="62"/>
       <c r="C45" s="33"/>
       <c r="D45" s="3"/>
       <c r="E45" s="7"/>
@@ -1894,10 +1894,10 @@
       <c r="Q45" s="7"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="55">
+      <c r="A46" s="60">
         <v>2</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="62" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="33"/>
@@ -1917,8 +1917,8 @@
       <c r="Q46" s="7"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
-      <c r="B47" s="57"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="62"/>
       <c r="C47" s="33"/>
       <c r="D47" s="3"/>
       <c r="E47" s="7"/>
@@ -1936,10 +1936,10 @@
       <c r="Q47" s="7"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="66" t="s">
+      <c r="A48" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="55" t="s">
         <v>30</v>
       </c>
       <c r="C48" s="32"/>
@@ -1959,8 +1959,8 @@
       <c r="Q48" s="9"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
-      <c r="B49" s="65"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="32"/>
       <c r="D49" s="4"/>
       <c r="E49" s="11"/>
@@ -1978,10 +1978,10 @@
       <c r="Q49" s="11"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="55">
+      <c r="A50" s="60">
         <v>1</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="62" t="s">
         <v>32</v>
       </c>
       <c r="C50" s="33"/>
@@ -2001,8 +2001,8 @@
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
-      <c r="B51" s="57"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="62"/>
       <c r="C51" s="33"/>
       <c r="D51" s="3"/>
       <c r="E51" s="7"/>
@@ -2020,10 +2020,10 @@
       <c r="Q51" s="7"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="55">
+      <c r="A52" s="60">
         <v>2</v>
       </c>
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="62" t="s">
         <v>33</v>
       </c>
       <c r="C52" s="33"/>
@@ -2043,8 +2043,8 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
-      <c r="B53" s="57"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="62"/>
       <c r="C53" s="33"/>
       <c r="D53" s="3"/>
       <c r="E53" s="7"/>
@@ -2062,10 +2062,10 @@
       <c r="Q53" s="7"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="55">
+      <c r="A54" s="60">
         <v>3</v>
       </c>
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="62" t="s">
         <v>34</v>
       </c>
       <c r="C54" s="33"/>
@@ -2085,8 +2085,8 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
-      <c r="B55" s="57"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="62"/>
       <c r="C55" s="33"/>
       <c r="D55" s="3"/>
       <c r="E55" s="7"/>
@@ -2104,10 +2104,10 @@
       <c r="Q55" s="7"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="55">
+      <c r="A56" s="60">
         <v>4</v>
       </c>
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="62" t="s">
         <v>31</v>
       </c>
       <c r="C56" s="34"/>
@@ -2127,8 +2127,8 @@
       <c r="Q56" s="18"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
-      <c r="B57" s="57"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="62"/>
       <c r="C57" s="33"/>
       <c r="D57" s="3"/>
       <c r="E57" s="7"/>
@@ -2146,10 +2146,10 @@
       <c r="Q57" s="7"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="66" t="s">
+      <c r="A58" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="68" t="s">
+      <c r="B58" s="50" t="s">
         <v>37</v>
       </c>
       <c r="C58" s="35"/>
@@ -2169,8 +2169,8 @@
       <c r="Q58" s="18"/>
     </row>
     <row r="59" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="70"/>
-      <c r="B59" s="69"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="51"/>
       <c r="C59" s="36"/>
       <c r="D59" s="29"/>
       <c r="E59" s="48"/>
@@ -2182,16 +2182,16 @@
       <c r="K59" s="48"/>
       <c r="L59" s="24"/>
       <c r="M59" s="25"/>
-      <c r="N59" s="26"/>
+      <c r="N59" s="48"/>
       <c r="O59" s="24"/>
       <c r="P59" s="25"/>
       <c r="Q59" s="26"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="66" t="s">
+      <c r="A60" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="65" t="s">
+      <c r="B60" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C60" s="39"/>
@@ -2211,8 +2211,8 @@
       <c r="Q60" s="23"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="67"/>
-      <c r="B61" s="65"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="32"/>
       <c r="D61" s="4"/>
       <c r="E61" s="11"/>
@@ -2230,10 +2230,10 @@
       <c r="Q61" s="11"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="71" t="s">
+      <c r="A62" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="73" t="s">
+      <c r="B62" s="58" t="s">
         <v>41</v>
       </c>
       <c r="C62" s="40"/>
@@ -2253,8 +2253,8 @@
       <c r="Q62" s="18"/>
     </row>
     <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="72"/>
-      <c r="B63" s="74"/>
+      <c r="A63" s="57"/>
+      <c r="B63" s="59"/>
       <c r="C63" s="43"/>
       <c r="D63" s="44"/>
       <c r="E63" s="48"/>
@@ -2266,45 +2266,34 @@
       <c r="K63" s="48"/>
       <c r="L63" s="46"/>
       <c r="M63" s="44"/>
-      <c r="N63" s="45"/>
+      <c r="N63" s="48"/>
       <c r="O63" s="46"/>
       <c r="P63" s="44"/>
       <c r="Q63" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
@@ -2321,27 +2310,38 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
